--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DB-felipe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DB-felipe\Documents\GitHub\PMBOK1\Documentos\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,9 +126,6 @@
     <t>Plano de Risco</t>
   </si>
   <si>
-    <t>Aprovação Requisitos, Planos projeto, risco, comunicação</t>
-  </si>
-  <si>
     <t>6,8,11,12</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Aprovação Requisitos, Planos projeto</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1088,9 @@
       <c r="E14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
       <c r="G14" s="12">
         <v>3</v>
       </c>
@@ -1182,9 +1184,7 @@
       <c r="E17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="12">
         <v>3</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C19" s="9">
         <v>42187</v>
@@ -1232,12 +1232,14 @@
       <c r="E19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
       <c r="G19" s="12">
         <v>3</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -1263,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9">
         <v>42188</v>
@@ -1272,14 +1274,14 @@
         <v>42189</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="12">
         <v>5</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9">
         <v>42189</v>
@@ -1311,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="9">
         <v>42190</v>
@@ -1320,7 +1322,7 @@
         <v>42190</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="12">
@@ -1335,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="9">
         <v>42191</v>
@@ -1359,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="9">
         <v>42191</v>
@@ -1401,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9">
         <v>42191</v>
@@ -1443,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="9">
         <v>42191</v>
@@ -1467,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="9">
         <v>42191</v>
@@ -1476,7 +1478,7 @@
         <v>42192</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="12">
@@ -1491,7 +1493,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="9">
         <v>42193</v>
@@ -1515,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="9">
         <v>42193</v>
@@ -1531,13 +1533,13 @@
         <v>3</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="28">
         <v>42193</v>
@@ -1546,7 +1548,7 @@
         <v>42193</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
@@ -1559,7 +1561,7 @@
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
       <c r="F31" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="36">
         <f>SUM(G7:G29)</f>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -783,7 +783,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1184,9 @@
       <c r="E17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
       <c r="G17" s="12">
         <v>3</v>
       </c>
@@ -1208,7 +1210,9 @@
       <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
       <c r="G18" s="12">
         <v>3</v>
       </c>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Cronograma</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Mario, Geovane</t>
   </si>
   <si>
-    <t>6,8,9</t>
-  </si>
-  <si>
     <t>Relatorio de Acompanhamento</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>Aprovação Requisitos, Planos projeto</t>
+  </si>
+  <si>
+    <t>Implementação da Arquitetura Basica</t>
+  </si>
+  <si>
+    <t>6,8,9,14</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -484,6 +487,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="9">
         <v>42187</v>
@@ -1240,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>35</v>
@@ -1268,96 +1274,116 @@
       <c r="A20" s="15">
         <v>14</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>36</v>
+      <c r="B20" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="9">
-        <v>42188</v>
+        <v>42187</v>
       </c>
       <c r="D20" s="9">
-        <v>42189</v>
-      </c>
-      <c r="E20" s="14" t="s">
+        <v>42187</v>
+      </c>
+      <c r="E20" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="12">
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
         <v>5</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="H20" s="13">
+        <v>9</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="9">
-        <v>42189</v>
+        <v>42188</v>
       </c>
       <c r="D21" s="9">
-        <v>42189</v>
+        <v>42188</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="12">
-        <v>3</v>
-      </c>
-      <c r="H21" s="13">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>16</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>40</v>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="9">
-        <v>42190</v>
+        <v>42188</v>
       </c>
       <c r="D22" s="9">
-        <v>42190</v>
+        <v>42188</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>17</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>41</v>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="D23" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,65 +1391,47 @@
         <v>18</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="D24" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="13">
-        <v>16</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>39</v>
+      <c r="B25" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="D25" s="9">
-        <v>42191</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>29</v>
+        <v>42189</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="17">
-        <v>3</v>
+      <c r="G25" s="12">
+        <v>1</v>
       </c>
       <c r="H25" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -1448,129 +1456,152 @@
       <c r="A26" s="15">
         <v>20</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>43</v>
+      <c r="B26" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="D26" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="13">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="9">
-        <v>42191</v>
+        <v>42189</v>
       </c>
       <c r="D27" s="9">
-        <v>42192</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>37</v>
+        <v>42189</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="12">
-        <v>5</v>
+      <c r="G27" s="17">
+        <v>1</v>
       </c>
       <c r="H27" s="13">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>22</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>39</v>
+      <c r="B28" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="9">
-        <v>42193</v>
+        <v>42190</v>
       </c>
       <c r="D28" s="9">
-        <v>42193</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>22</v>
+        <v>42190</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="17">
-        <v>3</v>
+      <c r="G28" s="12">
+        <v>5</v>
       </c>
       <c r="H28" s="13">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>23</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9">
+        <v>42191</v>
+      </c>
+      <c r="D29" s="9">
+        <v>42191</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="17">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>24</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="9">
+        <v>42191</v>
+      </c>
+      <c r="D30" s="9">
+        <v>42191</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="12">
+        <v>3</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="9">
-        <v>42193</v>
-      </c>
-      <c r="D29" s="9">
-        <v>42193</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="12">
-        <v>3</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="28">
-        <v>42193</v>
-      </c>
-      <c r="D30" s="28">
-        <v>42193</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="36">
-        <f>SUM(G7:G29)</f>
-        <v>63</v>
-      </c>
+      <c r="B31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,33 +1610,38 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="F32" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="36">
+        <f>SUM(G7:G30)</f>
+        <v>66</v>
+      </c>
       <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="37"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35" s="34"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
@@ -1615,10 +1651,10 @@
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
-      <c r="E36" s="37"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
       <c r="H36" s="32"/>
@@ -1628,7 +1664,7 @@
       <c r="B37" s="31"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
@@ -1675,7 +1711,7 @@
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="34"/>
@@ -1685,7 +1721,7 @@
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
-      <c r="B43" s="31"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="34"/>
@@ -1735,7 +1771,7 @@
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
-      <c r="B48" s="34"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="34"/>
@@ -1745,7 +1781,7 @@
     </row>
     <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="34"/>
@@ -1755,10 +1791,10 @@
     </row>
     <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
-      <c r="B50" s="31"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="37"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
       <c r="H50" s="32"/>
@@ -1768,7 +1804,7 @@
       <c r="B51" s="31"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="30"/>
       <c r="G51" s="31"/>
       <c r="H51" s="32"/>
@@ -1825,7 +1861,7 @@
     </row>
     <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="34"/>
@@ -1835,7 +1871,7 @@
     </row>
     <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="34"/>
@@ -1845,7 +1881,7 @@
     </row>
     <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
-      <c r="B59" s="31"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
@@ -1864,13 +1900,14 @@
       <c r="H60" s="32"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="H61" s="43"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
@@ -2502,12 +2539,13 @@
       <c r="F131" s="42"/>
       <c r="H131" s="43"/>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23"/>
       <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="42"/>
       <c r="H132" s="43"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9493,6 +9531,14 @@
       <c r="E1005" s="39"/>
       <c r="F1005" s="39"/>
       <c r="H1005" s="43"/>
+    </row>
+    <row r="1006" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="23"/>
+      <c r="B1006" s="39"/>
+      <c r="C1006" s="39"/>
+      <c r="E1006" s="39"/>
+      <c r="F1006" s="39"/>
+      <c r="H1006" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -472,6 +472,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -487,9 +490,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +789,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,67 +806,67 @@
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="D20" s="9">
         <v>42187</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="44" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="22">
@@ -1330,7 +1330,9 @@
       <c r="E21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
       <c r="G21" s="12">
         <v>5</v>
       </c>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1356,9 @@
       <c r="E22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
       <c r="G22" s="12">
         <v>3</v>
       </c>
@@ -1380,7 +1382,9 @@
       <c r="E23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
       <c r="G23" s="12">
         <v>5</v>
       </c>
@@ -1404,7 +1408,9 @@
       <c r="E24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
       <c r="G24" s="12">
         <v>3</v>
       </c>
@@ -1428,7 +1434,9 @@
       <c r="E25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
       <c r="G25" s="12">
         <v>1</v>
       </c>
@@ -1470,7 +1478,9 @@
       <c r="E26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22">
+        <v>1</v>
+      </c>
       <c r="G26" s="17">
         <v>3</v>
       </c>
@@ -1512,7 +1522,9 @@
       <c r="E27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1548,9 @@
       <c r="E28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
       <c r="G28" s="12">
         <v>5</v>
       </c>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1574,9 @@
       <c r="E29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
       <c r="G29" s="17">
         <v>3</v>
       </c>
@@ -1598,7 +1600,9 @@
       <c r="E30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
       <c r="G30" s="12">
         <v>3</v>
       </c>
@@ -1616,7 +1620,9 @@
       <c r="E31" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="30">
+        <v>1</v>
+      </c>
       <c r="G31" s="31"/>
       <c r="H31" s="32"/>
     </row>
